--- a/01_Data/All_group_info.xlsx
+++ b/01_Data/All_group_info.xlsx
@@ -1,132 +1,150 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28706"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\RStudio\AML_project\Proteome\01_Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9C98D8-4961-41C0-9C99-D02ED8367B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="25490" yWindow="1530" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLM13_2W_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLM13_VEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLM13_WT_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLM13_WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV4_11_6W_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV4_11_VEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV4_11_WT_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV4_11_WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCI_6W_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCI_VEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCI_WT_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCI_WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLM13_2W_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLM13_6W_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLM13_6W_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLM13_6W_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLM13_WT_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOLM13_WT_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV4_11_2W_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV4_11_2W_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV4_11_2W_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV4_11_6W_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV4_11_6W_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV4_11_WT_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV4_11_WT_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCI_2W_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCI_2W_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCI_2W_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCI_6W_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCI_6W_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCI_WT_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCI_WT_3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>MOLM13_2W_2</t>
+  </si>
+  <si>
+    <t>MOLM13_VEN</t>
+  </si>
+  <si>
+    <t>MOLM13_WT_1</t>
+  </si>
+  <si>
+    <t>MOLM13_WT</t>
+  </si>
+  <si>
+    <t>MV4_11_6W_1</t>
+  </si>
+  <si>
+    <t>MV4_11_VEN</t>
+  </si>
+  <si>
+    <t>MV4_11_WT_1</t>
+  </si>
+  <si>
+    <t>MV4_11_WT</t>
+  </si>
+  <si>
+    <t>OCI_6W_2</t>
+  </si>
+  <si>
+    <t>OCI_VEN</t>
+  </si>
+  <si>
+    <t>OCI_WT_1</t>
+  </si>
+  <si>
+    <t>OCI_WT</t>
+  </si>
+  <si>
+    <t>MOLM13_2W_3</t>
+  </si>
+  <si>
+    <t>MOLM13_6W_1</t>
+  </si>
+  <si>
+    <t>MOLM13_6W_2</t>
+  </si>
+  <si>
+    <t>MOLM13_6W_3</t>
+  </si>
+  <si>
+    <t>MOLM13_WT_2</t>
+  </si>
+  <si>
+    <t>MOLM13_WT_3</t>
+  </si>
+  <si>
+    <t>MV4_11_2W_1</t>
+  </si>
+  <si>
+    <t>MV4_11_2W_2</t>
+  </si>
+  <si>
+    <t>MV4_11_2W_3</t>
+  </si>
+  <si>
+    <t>MV4_11_6W_2</t>
+  </si>
+  <si>
+    <t>MV4_11_6W_3</t>
+  </si>
+  <si>
+    <t>MV4_11_WT_2</t>
+  </si>
+  <si>
+    <t>MV4_11_WT_3</t>
+  </si>
+  <si>
+    <t>OCI_2W_1</t>
+  </si>
+  <si>
+    <t>OCI_2W_2</t>
+  </si>
+  <si>
+    <t>OCI_2W_3</t>
+  </si>
+  <si>
+    <t>OCI_6W_1</t>
+  </si>
+  <si>
+    <t>OCI_6W_3</t>
+  </si>
+  <si>
+    <t>OCI_WT_2</t>
+  </si>
+  <si>
+    <t>OCI_WT_3</t>
+  </si>
+  <si>
+    <t>OCI_4W_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -154,9 +172,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -438,14 +465,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -461,7 +490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -469,7 +498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -477,7 +506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -485,7 +514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -493,7 +522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -501,7 +530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -509,7 +538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -517,7 +546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -525,7 +554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -533,7 +562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -541,7 +570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -549,7 +578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -557,7 +586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -565,7 +594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -573,7 +602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -581,7 +610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -589,7 +618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -597,7 +626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -605,7 +634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -613,7 +642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -621,7 +650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -629,40 +658,49 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>